--- a/code_generate_figures/save_data/FragPipe_DDA/FragPipe_DDAavg_rankings.xlsx
+++ b/code_generate_figures/save_data/FragPipe_DDA/FragPipe_DDAavg_rankings.xlsx
@@ -93,30 +93,30 @@
     <t xml:space="preserve">top3</t>
   </si>
   <si>
+    <t xml:space="preserve">DEP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DEqMS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">limma</t>
+  </si>
+  <si>
     <t xml:space="preserve">proDA</t>
   </si>
   <si>
-    <t xml:space="preserve">limma</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DEP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DEqMS</t>
-  </si>
-  <si>
     <t xml:space="preserve">5</t>
   </si>
   <si>
+    <t xml:space="preserve">ROTS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6</t>
+  </si>
+  <si>
     <t xml:space="preserve">SAM</t>
   </si>
   <si>
-    <t xml:space="preserve">6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ROTS</t>
-  </si>
-  <si>
     <t xml:space="preserve">7</t>
   </si>
   <si>
@@ -129,12 +129,12 @@
     <t xml:space="preserve">ANOVA</t>
   </si>
   <si>
+    <t xml:space="preserve">edgeR</t>
+  </si>
+  <si>
     <t xml:space="preserve">plgem</t>
   </si>
   <si>
-    <t xml:space="preserve">edgeR</t>
-  </si>
-  <si>
     <t xml:space="preserve">beta_binomial</t>
   </si>
   <si>
@@ -144,40 +144,40 @@
     <t xml:space="preserve">missForest</t>
   </si>
   <si>
+    <t xml:space="preserve">blank</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nbavg</t>
+  </si>
+  <si>
     <t xml:space="preserve">QRILC</t>
   </si>
   <si>
-    <t xml:space="preserve">blank</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nbavg</t>
+    <t xml:space="preserve">GMS</t>
   </si>
   <si>
     <t xml:space="preserve">MinProb</t>
   </si>
   <si>
-    <t xml:space="preserve">GMS</t>
+    <t xml:space="preserve">Impseq</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Impseqrob</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">knn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11</t>
   </si>
   <si>
     <t xml:space="preserve">MinDet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Impseq</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">knn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Impseqrob</t>
   </si>
   <si>
     <t xml:space="preserve">12</t>
@@ -657,10 +657,10 @@
         <v>18</v>
       </c>
       <c r="I2" t="n">
-        <v>0.333333333333333</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="J2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K2" t="s">
         <v>18</v>
@@ -681,7 +681,7 @@
         <v>4</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="3">
@@ -763,10 +763,10 @@
         <v>22</v>
       </c>
       <c r="I4" t="n">
-        <v>0.666666666666667</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="J4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K4" t="s">
         <v>22</v>
@@ -787,7 +787,7 @@
         <v>1</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="5">
@@ -927,40 +927,40 @@
         <v>25</v>
       </c>
       <c r="F2" t="n">
-        <v>0.857142857142857</v>
+        <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H2" t="s">
         <v>25</v>
       </c>
       <c r="I2" t="n">
-        <v>0.714285714285714</v>
+        <v>0.857142857142857</v>
       </c>
       <c r="J2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
       </c>
       <c r="L2" t="n">
-        <v>0.571428571428571</v>
+        <v>0.428571428571429</v>
       </c>
       <c r="M2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N2" t="s">
         <v>25</v>
       </c>
       <c r="O2" t="n">
-        <v>0.285714285714286</v>
+        <v>0.428571428571429</v>
       </c>
       <c r="P2" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q2" t="n">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="3">
@@ -980,19 +980,19 @@
         <v>26</v>
       </c>
       <c r="F3" t="n">
-        <v>1</v>
+        <v>0.571428571428571</v>
       </c>
       <c r="G3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H3" t="s">
         <v>26</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>0.571428571428571</v>
       </c>
       <c r="J3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
@@ -1007,13 +1007,13 @@
         <v>26</v>
       </c>
       <c r="O3" t="n">
-        <v>0.714285714285714</v>
+        <v>0.857142857142857</v>
       </c>
       <c r="P3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.6</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="4">
@@ -1033,40 +1033,40 @@
         <v>27</v>
       </c>
       <c r="F4" t="n">
-        <v>0.428571428571429</v>
+        <v>0.857142857142857</v>
       </c>
       <c r="G4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H4" t="s">
         <v>27</v>
       </c>
       <c r="I4" t="n">
-        <v>0.428571428571429</v>
+        <v>0.714285714285714</v>
       </c>
       <c r="J4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K4" t="s">
         <v>27</v>
       </c>
       <c r="L4" t="n">
-        <v>0.428571428571429</v>
+        <v>0.857142857142857</v>
       </c>
       <c r="M4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N4" t="s">
         <v>27</v>
       </c>
       <c r="O4" t="n">
-        <v>0.428571428571429</v>
+        <v>0.571428571428571</v>
       </c>
       <c r="P4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q4" t="n">
-        <v>4.6</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="5">
@@ -1086,10 +1086,10 @@
         <v>28</v>
       </c>
       <c r="F5" t="n">
-        <v>0.285714285714286</v>
+        <v>0.428571428571429</v>
       </c>
       <c r="G5" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H5" t="s">
         <v>28</v>
@@ -1104,22 +1104,22 @@
         <v>28</v>
       </c>
       <c r="L5" t="n">
-        <v>0.714285714285714</v>
+        <v>0.571428571428571</v>
       </c>
       <c r="M5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N5" t="s">
         <v>28</v>
       </c>
       <c r="O5" t="n">
-        <v>0.571428571428571</v>
+        <v>0.285714285714286</v>
       </c>
       <c r="P5" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="Q5" t="n">
-        <v>4.6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -1139,40 +1139,40 @@
         <v>30</v>
       </c>
       <c r="F6" t="n">
-        <v>0.571428571428571</v>
+        <v>0.714285714285714</v>
       </c>
       <c r="G6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H6" t="s">
         <v>30</v>
       </c>
       <c r="I6" t="n">
-        <v>0.571428571428571</v>
+        <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K6" t="s">
         <v>30</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>0.714285714285714</v>
       </c>
       <c r="M6" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="N6" t="s">
         <v>30</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>0.714285714285714</v>
       </c>
       <c r="P6" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="Q6" t="n">
-        <v>5.8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -1192,40 +1192,40 @@
         <v>32</v>
       </c>
       <c r="F7" t="n">
-        <v>0.714285714285714</v>
+        <v>0.285714285714286</v>
       </c>
       <c r="G7" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H7" t="s">
         <v>32</v>
       </c>
       <c r="I7" t="n">
-        <v>0.857142857142857</v>
+        <v>0.428571428571429</v>
       </c>
       <c r="J7" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K7" t="s">
         <v>32</v>
       </c>
       <c r="L7" t="n">
-        <v>0.857142857142857</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="N7" t="s">
         <v>32</v>
       </c>
       <c r="O7" t="n">
-        <v>0.857142857142857</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="Q7" t="n">
-        <v>3</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="8">
@@ -1263,10 +1263,10 @@
         <v>34</v>
       </c>
       <c r="L8" t="n">
-        <v>0.285714285714286</v>
+        <v>0.142857142857143</v>
       </c>
       <c r="M8" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N8" t="s">
         <v>34</v>
@@ -1278,7 +1278,7 @@
         <v>7</v>
       </c>
       <c r="Q8" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9">
@@ -1316,10 +1316,10 @@
         <v>36</v>
       </c>
       <c r="L9" t="n">
-        <v>0.142857142857143</v>
+        <v>0.285714285714286</v>
       </c>
       <c r="M9" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N9" t="s">
         <v>36</v>
@@ -1331,7 +1331,7 @@
         <v>1</v>
       </c>
       <c r="Q9" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
     </row>
   </sheetData>
@@ -1418,40 +1418,40 @@
         <v>37</v>
       </c>
       <c r="F2" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H2" t="s">
         <v>37</v>
       </c>
       <c r="I2" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="J2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K2" t="s">
         <v>37</v>
       </c>
       <c r="L2" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N2" t="s">
         <v>37</v>
       </c>
       <c r="O2" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="P2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q2" t="n">
-        <v>1</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="3">
@@ -1471,40 +1471,40 @@
         <v>38</v>
       </c>
       <c r="F3" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H3" t="s">
         <v>38</v>
       </c>
       <c r="I3" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="J3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K3" t="s">
         <v>38</v>
       </c>
       <c r="L3" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N3" t="s">
         <v>38</v>
       </c>
       <c r="O3" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="P3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q3" t="n">
-        <v>2</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="4">
@@ -1644,19 +1644,19 @@
         <v>40</v>
       </c>
       <c r="F2" t="n">
-        <v>0.933333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H2" t="s">
         <v>40</v>
       </c>
       <c r="I2" t="n">
-        <v>0.733333333333333</v>
+        <v>0.866666666666667</v>
       </c>
       <c r="J2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K2" t="s">
         <v>40</v>
@@ -1677,7 +1677,7 @@
         <v>10</v>
       </c>
       <c r="Q2" t="n">
-        <v>5</v>
+        <v>4.4</v>
       </c>
     </row>
     <row r="3">
@@ -1697,10 +1697,10 @@
         <v>41</v>
       </c>
       <c r="F3" t="n">
-        <v>1</v>
+        <v>0.933333333333333</v>
       </c>
       <c r="G3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H3" t="s">
         <v>41</v>
@@ -1715,10 +1715,10 @@
         <v>41</v>
       </c>
       <c r="L3" t="n">
-        <v>0.666666666666667</v>
+        <v>0.733333333333333</v>
       </c>
       <c r="M3" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N3" t="s">
         <v>41</v>
@@ -1750,40 +1750,40 @@
         <v>42</v>
       </c>
       <c r="F4" t="n">
-        <v>0.666666666666667</v>
+        <v>0.2</v>
       </c>
       <c r="G4" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="H4" t="s">
         <v>42</v>
       </c>
       <c r="I4" t="n">
-        <v>0.6</v>
+        <v>0.133333333333333</v>
       </c>
       <c r="J4" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="K4" t="s">
         <v>42</v>
       </c>
       <c r="L4" t="n">
-        <v>0.933333333333333</v>
+        <v>0.0666666666666667</v>
       </c>
       <c r="M4" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="N4" t="s">
         <v>42</v>
       </c>
       <c r="O4" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="Q4" t="n">
-        <v>5</v>
+        <v>12.2</v>
       </c>
     </row>
     <row r="5">
@@ -1803,40 +1803,40 @@
         <v>43</v>
       </c>
       <c r="F5" t="n">
-        <v>0.133333333333333</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="G5" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="H5" t="s">
         <v>43</v>
       </c>
       <c r="I5" t="n">
-        <v>0.133333333333333</v>
+        <v>0.533333333333333</v>
       </c>
       <c r="J5" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="K5" t="s">
         <v>43</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0666666666666667</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="M5" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="N5" t="s">
         <v>43</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="P5" t="n">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="Q5" t="n">
-        <v>12.6</v>
+        <v>6.2</v>
       </c>
     </row>
     <row r="6">
@@ -1865,19 +1865,19 @@
         <v>44</v>
       </c>
       <c r="I6" t="n">
-        <v>0.533333333333333</v>
+        <v>0.6</v>
       </c>
       <c r="J6" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K6" t="s">
         <v>44</v>
       </c>
       <c r="L6" t="n">
-        <v>0.733333333333333</v>
+        <v>0.8</v>
       </c>
       <c r="M6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N6" t="s">
         <v>44</v>
@@ -1889,7 +1889,7 @@
         <v>8</v>
       </c>
       <c r="Q6" t="n">
-        <v>6.6</v>
+        <v>6.2</v>
       </c>
     </row>
     <row r="7">
@@ -1909,40 +1909,40 @@
         <v>45</v>
       </c>
       <c r="F7" t="n">
-        <v>0.866666666666667</v>
+        <v>0.466666666666667</v>
       </c>
       <c r="G7" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="H7" t="s">
         <v>45</v>
       </c>
       <c r="I7" t="n">
-        <v>0.866666666666667</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="J7" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="K7" t="s">
         <v>45</v>
       </c>
       <c r="L7" t="n">
-        <v>0.866666666666667</v>
+        <v>0.466666666666667</v>
       </c>
       <c r="M7" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="N7" t="s">
         <v>45</v>
       </c>
       <c r="O7" t="n">
-        <v>0.866666666666667</v>
+        <v>0.2</v>
       </c>
       <c r="P7" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="Q7" t="n">
-        <v>3.6</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="8">
@@ -1962,40 +1962,40 @@
         <v>46</v>
       </c>
       <c r="F8" t="n">
-        <v>0.4</v>
+        <v>0.866666666666667</v>
       </c>
       <c r="G8" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="H8" t="s">
         <v>46</v>
       </c>
       <c r="I8" t="n">
-        <v>0.333333333333333</v>
+        <v>0.8</v>
       </c>
       <c r="J8" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="K8" t="s">
         <v>46</v>
       </c>
       <c r="L8" t="n">
-        <v>0.266666666666667</v>
+        <v>0.866666666666667</v>
       </c>
       <c r="M8" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="N8" t="s">
         <v>46</v>
       </c>
       <c r="O8" t="n">
-        <v>0.2</v>
+        <v>0.866666666666667</v>
       </c>
       <c r="P8" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="Q8" t="n">
-        <v>10.6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9">
@@ -2015,40 +2015,40 @@
         <v>47</v>
       </c>
       <c r="F9" t="n">
-        <v>0.733333333333333</v>
+        <v>0.8</v>
       </c>
       <c r="G9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H9" t="s">
         <v>47</v>
       </c>
       <c r="I9" t="n">
-        <v>0.8</v>
+        <v>0.933333333333333</v>
       </c>
       <c r="J9" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K9" t="s">
         <v>47</v>
       </c>
       <c r="L9" t="n">
-        <v>1</v>
+        <v>0.533333333333333</v>
       </c>
       <c r="M9" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="N9" t="s">
         <v>47</v>
       </c>
       <c r="O9" t="n">
-        <v>0.933333333333333</v>
+        <v>0.8</v>
       </c>
       <c r="P9" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Q9" t="n">
-        <v>4</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="10">
@@ -2068,40 +2068,40 @@
         <v>49</v>
       </c>
       <c r="F10" t="n">
-        <v>0.8</v>
+        <v>0.266666666666667</v>
       </c>
       <c r="G10" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="H10" t="s">
         <v>49</v>
       </c>
       <c r="I10" t="n">
-        <v>0.933333333333333</v>
+        <v>0.2</v>
       </c>
       <c r="J10" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="K10" t="s">
         <v>49</v>
       </c>
       <c r="L10" t="n">
-        <v>0.533333333333333</v>
+        <v>0.133333333333333</v>
       </c>
       <c r="M10" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="N10" t="s">
         <v>49</v>
       </c>
       <c r="O10" t="n">
-        <v>0.8</v>
+        <v>0.133333333333333</v>
       </c>
       <c r="P10" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="Q10" t="n">
-        <v>5.4</v>
+        <v>12.4</v>
       </c>
     </row>
     <row r="11">
@@ -2121,10 +2121,10 @@
         <v>51</v>
       </c>
       <c r="F11" t="n">
-        <v>0.466666666666667</v>
+        <v>0.4</v>
       </c>
       <c r="G11" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H11" t="s">
         <v>51</v>
@@ -2139,10 +2139,10 @@
         <v>51</v>
       </c>
       <c r="L11" t="n">
-        <v>0.4</v>
+        <v>0.266666666666667</v>
       </c>
       <c r="M11" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="N11" t="s">
         <v>51</v>
@@ -2154,7 +2154,7 @@
         <v>12</v>
       </c>
       <c r="Q11" t="n">
-        <v>10.2</v>
+        <v>10.8</v>
       </c>
     </row>
     <row r="12">
@@ -2174,40 +2174,40 @@
         <v>53</v>
       </c>
       <c r="F12" t="n">
-        <v>0.266666666666667</v>
+        <v>0.733333333333333</v>
       </c>
       <c r="G12" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="H12" t="s">
         <v>53</v>
       </c>
       <c r="I12" t="n">
-        <v>0.2</v>
+        <v>0.733333333333333</v>
       </c>
       <c r="J12" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="K12" t="s">
         <v>53</v>
       </c>
       <c r="L12" t="n">
-        <v>0.133333333333333</v>
+        <v>0.933333333333333</v>
       </c>
       <c r="M12" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="N12" t="s">
         <v>53</v>
       </c>
       <c r="O12" t="n">
-        <v>0.133333333333333</v>
+        <v>0.933333333333333</v>
       </c>
       <c r="P12" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="Q12" t="n">
-        <v>12.8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13">
@@ -2333,10 +2333,10 @@
         <v>59</v>
       </c>
       <c r="F15" t="n">
-        <v>0.2</v>
+        <v>0.133333333333333</v>
       </c>
       <c r="G15" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H15" t="s">
         <v>59</v>
@@ -2351,10 +2351,10 @@
         <v>59</v>
       </c>
       <c r="L15" t="n">
-        <v>0.466666666666667</v>
+        <v>0.4</v>
       </c>
       <c r="M15" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="N15" t="s">
         <v>59</v>
@@ -2366,7 +2366,7 @@
         <v>9</v>
       </c>
       <c r="Q15" t="n">
-        <v>11.4</v>
+        <v>11.8</v>
       </c>
     </row>
     <row r="16">
@@ -2404,10 +2404,10 @@
         <v>61</v>
       </c>
       <c r="L16" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="M16" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N16" t="s">
         <v>61</v>
@@ -2419,7 +2419,7 @@
         <v>1</v>
       </c>
       <c r="Q16" t="n">
-        <v>10</v>
+        <v>9.4</v>
       </c>
     </row>
     <row r="17">
@@ -2547,7 +2547,7 @@
         <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -2556,7 +2556,7 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
@@ -2565,7 +2565,7 @@
         <v>1</v>
       </c>
       <c r="H2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I2" t="n">
         <v>1</v>
@@ -2574,7 +2574,7 @@
         <v>1</v>
       </c>
       <c r="K2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L2" t="n">
         <v>1</v>
@@ -2583,7 +2583,7 @@
         <v>1</v>
       </c>
       <c r="N2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O2" t="n">
         <v>1</v>
@@ -2727,10 +2727,10 @@
         <v>66</v>
       </c>
       <c r="I5" t="n">
-        <v>0.692307692307692</v>
+        <v>0.769230769230769</v>
       </c>
       <c r="J5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K5" t="s">
         <v>66</v>
@@ -2751,7 +2751,7 @@
         <v>2</v>
       </c>
       <c r="Q5" t="n">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="6">
@@ -2780,10 +2780,10 @@
         <v>67</v>
       </c>
       <c r="I6" t="n">
-        <v>0.769230769230769</v>
+        <v>0.692307692307692</v>
       </c>
       <c r="J6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K6" t="s">
         <v>67</v>
@@ -2804,7 +2804,7 @@
         <v>11</v>
       </c>
       <c r="Q6" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="7">
@@ -2886,10 +2886,10 @@
         <v>69</v>
       </c>
       <c r="I8" t="n">
-        <v>0.538461538461538</v>
+        <v>0.461538461538462</v>
       </c>
       <c r="J8" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K8" t="s">
         <v>69</v>
@@ -2910,7 +2910,7 @@
         <v>6</v>
       </c>
       <c r="Q8" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
     </row>
     <row r="9">
@@ -3045,10 +3045,10 @@
         <v>72</v>
       </c>
       <c r="I11" t="n">
-        <v>0.461538461538462</v>
+        <v>0.538461538461538</v>
       </c>
       <c r="J11" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K11" t="s">
         <v>72</v>
@@ -3069,7 +3069,7 @@
         <v>14</v>
       </c>
       <c r="Q11" t="n">
-        <v>11</v>
+        <v>10.8</v>
       </c>
     </row>
     <row r="12">
